--- a/tests/files/mentormatch_example_applications.xlsx
+++ b/tests/files/mentormatch_example_applications.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchukina\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchukina\projects\mentormatch\tests\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DBEFA2-1425-44F9-B575-B52A00B96A8A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D66C94-9874-4C7D-A75B-C16DFC49EB6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mentors" sheetId="1" r:id="rId1"/>
     <sheet name="mentees" sheetId="3" r:id="rId2"/>
-    <sheet name="favor" sheetId="4" r:id="rId3"/>
-    <sheet name="_56F9DC9755BA473782653E2940F9" sheetId="2" state="veryHidden" r:id="rId4"/>
+    <sheet name="favored" sheetId="4" r:id="rId3"/>
+    <sheet name="mentees004320" sheetId="5" r:id="rId4"/>
+    <sheet name="_56F9DC9755BA473782653E2940F9" sheetId="2" state="veryHidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_56F9DC9755BA473782653E2940F9FormId" localSheetId="1">"M0vJOjWRIUiVAur9plkqNXt4eth-LKZDjqsdSLSP4qJUQ0RMNDVNTEpaR1pLUEowNzdDWkZRNEhCNy4u"</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -521,7 +522,7 @@
     <t>wwid</t>
   </si>
   <si>
-    <t>level</t>
+    <t>favor</t>
   </si>
 </sst>
 </file>
@@ -569,7 +570,97 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="91">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -770,36 +861,36 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AD6" totalsRowShown="0">
   <autoFilter ref="A1:AD6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="First Name" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Nickname" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Last Name" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Gender" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="WWID" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="J&amp;J Email Address" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Job Title" dataDxfId="49"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Department and/or job function" dataDxfId="48"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Which is your home office?" dataDxfId="47"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Years of Experience" dataDxfId="46"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Years with JNJ" dataDxfId="45"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Position Level" dataDxfId="44"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="&quot;Elevator Pitch&quot;" dataDxfId="43"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="LinkedIn Profile URL" dataDxfId="42"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Which of these do you think are good at?" dataDxfId="41"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Fort Washington (Consumer Inc)" dataDxfId="40"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Malvern (Janssen)" dataDxfId="39"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Spring House (Janssen)" dataDxfId="38"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="West Chester (DePuy Synthes)" dataDxfId="37"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Horsham (Janssen)" dataDxfId="36"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="How many mentees are you willing to mentor?" dataDxfId="35"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Female" dataDxfId="34"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Male" dataDxfId="33"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Please confirm you are willing and able to meet at least once a month with your mentor between April and December 2020." dataDxfId="32"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Comments for the mentoring committee" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="First Name" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Nickname" dataDxfId="84"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Last Name" dataDxfId="83"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Gender" dataDxfId="82"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="WWID" dataDxfId="81"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="J&amp;J Email Address" dataDxfId="80"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Job Title" dataDxfId="79"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Department and/or job function" dataDxfId="78"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Which is your home office?" dataDxfId="77"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Years of Experience" dataDxfId="76"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Years with JNJ" dataDxfId="75"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Position Level" dataDxfId="74"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="&quot;Elevator Pitch&quot;" dataDxfId="73"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="LinkedIn Profile URL" dataDxfId="72"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Which of these do you think are good at?" dataDxfId="71"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Fort Washington (Consumer Inc)" dataDxfId="70"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Malvern (Janssen)" dataDxfId="69"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Spring House (Janssen)" dataDxfId="68"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="West Chester (DePuy Synthes)" dataDxfId="67"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Horsham (Janssen)" dataDxfId="66"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="How many mentees are you willing to mentor?" dataDxfId="65"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Female" dataDxfId="64"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Male" dataDxfId="63"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Please confirm you are willing and able to meet at least once a month with your mentor between April and December 2020." dataDxfId="62"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Comments for the mentoring committee" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -809,37 +900,76 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EFCA757-1263-4606-88F0-B606FE664E19}" name="Table13" displayName="Table13" ref="A1:AE6" totalsRowShown="0">
   <autoFilter ref="A1:AE6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{C6699A28-F2E1-43BE-9E97-FEADB461C337}" name="ID" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{16257405-A08D-4DDE-AF20-290E4739C52C}" name="Start time" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{131AD184-7A7D-4AFD-8743-CDE854C2E4AF}" name="Completion time" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{69F2CB35-036B-411C-B99E-393544A9EA00}" name="Email" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{8EE54A42-C029-4F6F-A6AA-DF42C4D0FE97}" name="Name" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{4EA4DE18-C152-48FA-AAEE-A9CCF6B2D718}" name="First Name" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{7FACF7CD-829C-4815-8EE0-0FCB7E74EF9A}" name="Nickname" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{42D3AC82-621C-4E35-930E-7AC68315C1FF}" name="Last Name" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{9654BC7E-8130-4F8B-BC05-FAFE4370944C}" name="Gender" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{27021CD0-B11B-4849-AEE8-3449C618B1A8}" name="WWID" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{B6EA6AB3-8E89-422A-BB6D-7C6AF6DD2180}" name="J&amp;J Email Address" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{AD038AF6-177B-4F56-BF23-671894E16E34}" name="Job Title" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{F89721D1-73E2-460F-87E7-E1968AE3E8B6}" name="Department and/or job function" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{3C1FB8EE-8BE0-4EF5-8788-80A4B9E29A3D}" name="Which is your home office?" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{1549187F-C29D-4F35-86A0-E26C157548F5}" name="Years of Experience" dataDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{BC09D291-1390-4147-850C-DDC12AFA0C77}" name="Years with JNJ" dataDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{5E5C8E84-BB57-44D2-967C-1FEEF5EC8795}" name="Position Level" dataDxfId="14"/>
-    <tableColumn id="18" xr3:uid="{51C71E5C-B243-4B4F-A3F2-9B3DAFD1E1D1}" name="Would you like to enter one to five preferred mentors?" dataDxfId="13"/>
-    <tableColumn id="19" xr3:uid="{C03EBF87-3C21-4B6C-AA1D-85529B62C0B0}" name="WWIDs of Preferred Mentor" dataDxfId="12"/>
-    <tableColumn id="20" xr3:uid="{8AD53261-29AE-4B5E-BD6C-D830A1ADB1D6}" name="Thanks for taking the time to enter some preferred mentors! How would you like to proceed?" dataDxfId="11"/>
-    <tableColumn id="21" xr3:uid="{61E83F74-9DB4-4AAC-A7FA-E3C94CF11F53}" name="Fort Washington (Consumer Inc)" dataDxfId="10"/>
-    <tableColumn id="22" xr3:uid="{999FD483-FDDB-4222-8696-25F5EBE2C22F}" name="Malvern (Janssen)" dataDxfId="9"/>
-    <tableColumn id="23" xr3:uid="{951F7A69-6D38-493F-A1DB-04F269F32701}" name="Spring House (Janssen)" dataDxfId="8"/>
-    <tableColumn id="24" xr3:uid="{FBB9F19E-94A4-4993-8A18-BCDBA18DC88A}" name="West Chester (DePuy Synthes)" dataDxfId="7"/>
-    <tableColumn id="25" xr3:uid="{FBCBC50A-3F9A-44CB-895B-D59062A303D9}" name="Horsham (Janssen)" dataDxfId="6"/>
-    <tableColumn id="26" xr3:uid="{699110DE-87E4-4B96-A7C9-66CDB3FC4EC1}" name="Titusville (Janssen)" dataDxfId="5"/>
-    <tableColumn id="27" xr3:uid="{8ADE0FBB-F30F-485F-BED8-6824206C7809}" name="Female" dataDxfId="4"/>
-    <tableColumn id="28" xr3:uid="{9B26AA55-D37A-4C5C-B11D-9C3E03CE7F38}" name="Male" dataDxfId="3"/>
-    <tableColumn id="29" xr3:uid="{D1CAA9F8-F250-41A9-A6B8-B8674A78ADB8}" name="Part 3 of 3_x000a_Which of these mentor skills are important to you?" dataDxfId="2"/>
-    <tableColumn id="30" xr3:uid="{A44A8159-8842-4A19-A9E3-916A205D4490}" name="Please confirm you are willing and able to meet at least once a month with your mentor between April and December 2020." dataDxfId="1"/>
-    <tableColumn id="31" xr3:uid="{A97144C3-8CF1-465E-A1C1-03D5D8BDA656}" name="Comments for the mentoring committee" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C6699A28-F2E1-43BE-9E97-FEADB461C337}" name="ID" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{16257405-A08D-4DDE-AF20-290E4739C52C}" name="Start time" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{131AD184-7A7D-4AFD-8743-CDE854C2E4AF}" name="Completion time" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{69F2CB35-036B-411C-B99E-393544A9EA00}" name="Email" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{8EE54A42-C029-4F6F-A6AA-DF42C4D0FE97}" name="Name" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{4EA4DE18-C152-48FA-AAEE-A9CCF6B2D718}" name="First Name" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{7FACF7CD-829C-4815-8EE0-0FCB7E74EF9A}" name="Nickname" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{42D3AC82-621C-4E35-930E-7AC68315C1FF}" name="Last Name" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{9654BC7E-8130-4F8B-BC05-FAFE4370944C}" name="Gender" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{27021CD0-B11B-4849-AEE8-3449C618B1A8}" name="WWID" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{B6EA6AB3-8E89-422A-BB6D-7C6AF6DD2180}" name="J&amp;J Email Address" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{AD038AF6-177B-4F56-BF23-671894E16E34}" name="Job Title" dataDxfId="49"/>
+    <tableColumn id="13" xr3:uid="{F89721D1-73E2-460F-87E7-E1968AE3E8B6}" name="Department and/or job function" dataDxfId="48"/>
+    <tableColumn id="14" xr3:uid="{3C1FB8EE-8BE0-4EF5-8788-80A4B9E29A3D}" name="Which is your home office?" dataDxfId="47"/>
+    <tableColumn id="15" xr3:uid="{1549187F-C29D-4F35-86A0-E26C157548F5}" name="Years of Experience" dataDxfId="46"/>
+    <tableColumn id="16" xr3:uid="{BC09D291-1390-4147-850C-DDC12AFA0C77}" name="Years with JNJ" dataDxfId="45"/>
+    <tableColumn id="17" xr3:uid="{5E5C8E84-BB57-44D2-967C-1FEEF5EC8795}" name="Position Level" dataDxfId="44"/>
+    <tableColumn id="18" xr3:uid="{51C71E5C-B243-4B4F-A3F2-9B3DAFD1E1D1}" name="Would you like to enter one to five preferred mentors?" dataDxfId="43"/>
+    <tableColumn id="19" xr3:uid="{C03EBF87-3C21-4B6C-AA1D-85529B62C0B0}" name="WWIDs of Preferred Mentor" dataDxfId="42"/>
+    <tableColumn id="20" xr3:uid="{8AD53261-29AE-4B5E-BD6C-D830A1ADB1D6}" name="Thanks for taking the time to enter some preferred mentors! How would you like to proceed?" dataDxfId="41"/>
+    <tableColumn id="21" xr3:uid="{61E83F74-9DB4-4AAC-A7FA-E3C94CF11F53}" name="Fort Washington (Consumer Inc)" dataDxfId="40"/>
+    <tableColumn id="22" xr3:uid="{999FD483-FDDB-4222-8696-25F5EBE2C22F}" name="Malvern (Janssen)" dataDxfId="39"/>
+    <tableColumn id="23" xr3:uid="{951F7A69-6D38-493F-A1DB-04F269F32701}" name="Spring House (Janssen)" dataDxfId="38"/>
+    <tableColumn id="24" xr3:uid="{FBB9F19E-94A4-4993-8A18-BCDBA18DC88A}" name="West Chester (DePuy Synthes)" dataDxfId="37"/>
+    <tableColumn id="25" xr3:uid="{FBCBC50A-3F9A-44CB-895B-D59062A303D9}" name="Horsham (Janssen)" dataDxfId="36"/>
+    <tableColumn id="26" xr3:uid="{699110DE-87E4-4B96-A7C9-66CDB3FC4EC1}" name="Titusville (Janssen)" dataDxfId="35"/>
+    <tableColumn id="27" xr3:uid="{8ADE0FBB-F30F-485F-BED8-6824206C7809}" name="Female" dataDxfId="34"/>
+    <tableColumn id="28" xr3:uid="{9B26AA55-D37A-4C5C-B11D-9C3E03CE7F38}" name="Male" dataDxfId="33"/>
+    <tableColumn id="29" xr3:uid="{D1CAA9F8-F250-41A9-A6B8-B8674A78ADB8}" name="Part 3 of 3_x000a_Which of these mentor skills are important to you?" dataDxfId="32"/>
+    <tableColumn id="30" xr3:uid="{A44A8159-8842-4A19-A9E3-916A205D4490}" name="Please confirm you are willing and able to meet at least once a month with your mentor between April and December 2020." dataDxfId="31"/>
+    <tableColumn id="31" xr3:uid="{A97144C3-8CF1-465E-A1C1-03D5D8BDA656}" name="Comments for the mentoring committee" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{35E61BE1-7BBC-4CA2-895F-5C0C4A483C31}" name="Table14" displayName="Table14" ref="A1:AD6" totalsRowShown="0">
+  <autoFilter ref="A1:AD6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="30">
+    <tableColumn id="1" xr3:uid="{A69B8051-700E-4CEF-BF8F-E11865CE7541}" name="ID" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{A6AA8B20-DC2D-439B-9169-E58260998708}" name="Start time" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{FB9ED99E-78C1-459A-AD96-A4CC99C9A1E4}" name="Completion time" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{9560AD28-703C-4388-8C02-E1D7F87AE4DA}" name="Email" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{90F0D221-52F1-4CF0-8CE5-D73732B75AF1}" name="Name" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{57CA2EB8-A8C3-4FF0-AE78-BE2F754A20BC}" name="First Name" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{827E6EDB-12E3-469E-87A9-5F158007F24C}" name="Nickname" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{C97E4DEF-2FB0-4CEB-8245-F25BF6580460}" name="Last Name" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{6D6E4A6F-572D-4515-B287-592361A96CA8}" name="Gender" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{549D2D2C-5847-4D1C-B7FC-9C823CE1EBAC}" name="WWID" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{39A0C549-C6D4-48BA-AEB2-3A27FEC09EE9}" name="J&amp;J Email Address" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{13C11ACE-C083-4EE1-859E-2C631AF09E09}" name="Job Title" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{81E5976B-66C6-4CD4-B824-F1B776565567}" name="Department and/or job function" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{59173813-0974-4D10-814C-DCA91E809377}" name="Which is your home office?" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{415DB493-EA7A-44D4-B414-F7CF217700EB}" name="Years of Experience" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{49476559-1C29-4E4F-BFF9-D98004F86AEA}" name="Years with JNJ" dataDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{54974074-F954-45A2-8436-B5A8CD47292D}" name="Position Level" dataDxfId="13"/>
+    <tableColumn id="18" xr3:uid="{C033A53C-97B8-4AB5-A87D-1A76E095F4DD}" name="&quot;Elevator Pitch&quot;" dataDxfId="12"/>
+    <tableColumn id="19" xr3:uid="{058E2DB9-A821-496A-B123-9967F109B9D6}" name="LinkedIn Profile URL" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{288DA4D4-1036-4450-A205-129AD760D208}" name="Which of these do you think are good at?" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{4471961A-7C86-4C57-B8A6-921600E6F9A1}" name="Fort Washington (Consumer Inc)" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{954F2F58-B7EE-4BD7-B353-34BEBA531C2E}" name="Malvern (Janssen)" dataDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{5055DCC2-09E7-4801-B693-4F8F957843B1}" name="Spring House (Janssen)" dataDxfId="7"/>
+    <tableColumn id="24" xr3:uid="{674D6384-0773-48BB-88FB-0C08B38101EC}" name="West Chester (DePuy Synthes)" dataDxfId="6"/>
+    <tableColumn id="25" xr3:uid="{0F27AB4A-0B77-4F85-94D2-DC4A6FDFB466}" name="Horsham (Janssen)" dataDxfId="5"/>
+    <tableColumn id="26" xr3:uid="{9BE7695C-FC9E-4FC9-9A74-9ED1414DC5AA}" name="How many mentees are you willing to mentor?" dataDxfId="4"/>
+    <tableColumn id="27" xr3:uid="{EB0CA96F-2BE4-4B35-90A9-F830C0B91CA1}" name="Female" dataDxfId="3"/>
+    <tableColumn id="28" xr3:uid="{2DBC14D2-9C97-473C-A336-E709EDE27CD4}" name="Male" dataDxfId="2"/>
+    <tableColumn id="29" xr3:uid="{60C65141-3256-4BCB-96B0-58DC8728772B}" name="Please confirm you are willing and able to meet at least once a month with your mentor between April and December 2020." dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{3B42E27A-586D-4B30-93C3-9413FAA2D7AD}" name="Comments for the mentoring committee" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1145,7 +1275,7 @@
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,7 +1831,7 @@
   <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2249,7 +2379,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,6 +2417,562 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189E1F54-C9D3-4C64-90CF-E6CAD60657E6}">
+  <dimension ref="A1:AD6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="30" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43815.416828703703</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43815.418865740699</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43815.430520833303</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43815.431840277801</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43815.431909722225</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43815.434131944443</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD4" s="3"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43815.434155092589</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43815.435671296298</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD5" s="3"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43815.435694444444</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43815.437245370369</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>

--- a/tests/files/mentormatch_example_applications.xlsx
+++ b/tests/files/mentormatch_example_applications.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchukina\projects\mentormatch\tests\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D66C94-9874-4C7D-A75B-C16DFC49EB6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05E004B-ADC8-4BE8-AFEA-5B970F12AC61}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mentors" sheetId="1" r:id="rId1"/>
     <sheet name="mentees" sheetId="3" r:id="rId2"/>
-    <sheet name="favored" sheetId="4" r:id="rId3"/>
+    <sheet name="favor" sheetId="4" r:id="rId3"/>
     <sheet name="mentees004320" sheetId="5" r:id="rId4"/>
     <sheet name="_56F9DC9755BA473782653E2940F9" sheetId="2" state="veryHidden" r:id="rId5"/>
   </sheets>

--- a/tests/files/mentormatch_example_applications.xlsx
+++ b/tests/files/mentormatch_example_applications.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchukina\projects\mentormatch\tests\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05E004B-ADC8-4BE8-AFEA-5B970F12AC61}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3A69BA-8B91-4D33-AA53-CCC72B006ACB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mentors" sheetId="1" r:id="rId1"/>
     <sheet name="mentees" sheetId="3" r:id="rId2"/>
     <sheet name="favor" sheetId="4" r:id="rId3"/>
-    <sheet name="mentees004320" sheetId="5" r:id="rId4"/>
-    <sheet name="_56F9DC9755BA473782653E2940F9" sheetId="2" state="veryHidden" r:id="rId5"/>
+    <sheet name="_56F9DC9755BA473782653E2940F9" sheetId="2" state="veryHidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_56F9DC9755BA473782653E2940F9FormId" localSheetId="1">"M0vJOjWRIUiVAur9plkqNXt4eth-LKZDjqsdSLSP4qJUQ0RMNDVNTEpaR1pLUEowNzdDWkZRNEhCNy4u"</definedName>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -570,97 +569,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="91">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="61">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -861,36 +770,36 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AD6" totalsRowShown="0">
   <autoFilter ref="A1:AD6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="First Name" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Nickname" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Last Name" dataDxfId="83"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Gender" dataDxfId="82"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="WWID" dataDxfId="81"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="J&amp;J Email Address" dataDxfId="80"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Job Title" dataDxfId="79"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Department and/or job function" dataDxfId="78"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Which is your home office?" dataDxfId="77"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Years of Experience" dataDxfId="76"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Years with JNJ" dataDxfId="75"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Position Level" dataDxfId="74"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="&quot;Elevator Pitch&quot;" dataDxfId="73"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="LinkedIn Profile URL" dataDxfId="72"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Which of these do you think are good at?" dataDxfId="71"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Fort Washington (Consumer Inc)" dataDxfId="70"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Malvern (Janssen)" dataDxfId="69"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Spring House (Janssen)" dataDxfId="68"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="West Chester (DePuy Synthes)" dataDxfId="67"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Horsham (Janssen)" dataDxfId="66"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="How many mentees are you willing to mentor?" dataDxfId="65"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Female" dataDxfId="64"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Male" dataDxfId="63"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Please confirm you are willing and able to meet at least once a month with your mentor between April and December 2020." dataDxfId="62"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Comments for the mentoring committee" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="First Name" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Nickname" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Last Name" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Gender" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="WWID" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="J&amp;J Email Address" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Job Title" dataDxfId="49"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Department and/or job function" dataDxfId="48"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Which is your home office?" dataDxfId="47"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Years of Experience" dataDxfId="46"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Years with JNJ" dataDxfId="45"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Position Level" dataDxfId="44"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="&quot;Elevator Pitch&quot;" dataDxfId="43"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="LinkedIn Profile URL" dataDxfId="42"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Which of these do you think are good at?" dataDxfId="41"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Fort Washington (Consumer Inc)" dataDxfId="40"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Malvern (Janssen)" dataDxfId="39"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Spring House (Janssen)" dataDxfId="38"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="West Chester (DePuy Synthes)" dataDxfId="37"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Horsham (Janssen)" dataDxfId="36"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="How many mentees are you willing to mentor?" dataDxfId="35"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Female" dataDxfId="34"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Male" dataDxfId="33"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Please confirm you are willing and able to meet at least once a month with your mentor between April and December 2020." dataDxfId="32"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Comments for the mentoring committee" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -900,76 +809,37 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EFCA757-1263-4606-88F0-B606FE664E19}" name="Table13" displayName="Table13" ref="A1:AE6" totalsRowShown="0">
   <autoFilter ref="A1:AE6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{C6699A28-F2E1-43BE-9E97-FEADB461C337}" name="ID" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{16257405-A08D-4DDE-AF20-290E4739C52C}" name="Start time" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{131AD184-7A7D-4AFD-8743-CDE854C2E4AF}" name="Completion time" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{69F2CB35-036B-411C-B99E-393544A9EA00}" name="Email" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{8EE54A42-C029-4F6F-A6AA-DF42C4D0FE97}" name="Name" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{4EA4DE18-C152-48FA-AAEE-A9CCF6B2D718}" name="First Name" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{7FACF7CD-829C-4815-8EE0-0FCB7E74EF9A}" name="Nickname" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{42D3AC82-621C-4E35-930E-7AC68315C1FF}" name="Last Name" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{9654BC7E-8130-4F8B-BC05-FAFE4370944C}" name="Gender" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{27021CD0-B11B-4849-AEE8-3449C618B1A8}" name="WWID" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{B6EA6AB3-8E89-422A-BB6D-7C6AF6DD2180}" name="J&amp;J Email Address" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{AD038AF6-177B-4F56-BF23-671894E16E34}" name="Job Title" dataDxfId="49"/>
-    <tableColumn id="13" xr3:uid="{F89721D1-73E2-460F-87E7-E1968AE3E8B6}" name="Department and/or job function" dataDxfId="48"/>
-    <tableColumn id="14" xr3:uid="{3C1FB8EE-8BE0-4EF5-8788-80A4B9E29A3D}" name="Which is your home office?" dataDxfId="47"/>
-    <tableColumn id="15" xr3:uid="{1549187F-C29D-4F35-86A0-E26C157548F5}" name="Years of Experience" dataDxfId="46"/>
-    <tableColumn id="16" xr3:uid="{BC09D291-1390-4147-850C-DDC12AFA0C77}" name="Years with JNJ" dataDxfId="45"/>
-    <tableColumn id="17" xr3:uid="{5E5C8E84-BB57-44D2-967C-1FEEF5EC8795}" name="Position Level" dataDxfId="44"/>
-    <tableColumn id="18" xr3:uid="{51C71E5C-B243-4B4F-A3F2-9B3DAFD1E1D1}" name="Would you like to enter one to five preferred mentors?" dataDxfId="43"/>
-    <tableColumn id="19" xr3:uid="{C03EBF87-3C21-4B6C-AA1D-85529B62C0B0}" name="WWIDs of Preferred Mentor" dataDxfId="42"/>
-    <tableColumn id="20" xr3:uid="{8AD53261-29AE-4B5E-BD6C-D830A1ADB1D6}" name="Thanks for taking the time to enter some preferred mentors! How would you like to proceed?" dataDxfId="41"/>
-    <tableColumn id="21" xr3:uid="{61E83F74-9DB4-4AAC-A7FA-E3C94CF11F53}" name="Fort Washington (Consumer Inc)" dataDxfId="40"/>
-    <tableColumn id="22" xr3:uid="{999FD483-FDDB-4222-8696-25F5EBE2C22F}" name="Malvern (Janssen)" dataDxfId="39"/>
-    <tableColumn id="23" xr3:uid="{951F7A69-6D38-493F-A1DB-04F269F32701}" name="Spring House (Janssen)" dataDxfId="38"/>
-    <tableColumn id="24" xr3:uid="{FBB9F19E-94A4-4993-8A18-BCDBA18DC88A}" name="West Chester (DePuy Synthes)" dataDxfId="37"/>
-    <tableColumn id="25" xr3:uid="{FBCBC50A-3F9A-44CB-895B-D59062A303D9}" name="Horsham (Janssen)" dataDxfId="36"/>
-    <tableColumn id="26" xr3:uid="{699110DE-87E4-4B96-A7C9-66CDB3FC4EC1}" name="Titusville (Janssen)" dataDxfId="35"/>
-    <tableColumn id="27" xr3:uid="{8ADE0FBB-F30F-485F-BED8-6824206C7809}" name="Female" dataDxfId="34"/>
-    <tableColumn id="28" xr3:uid="{9B26AA55-D37A-4C5C-B11D-9C3E03CE7F38}" name="Male" dataDxfId="33"/>
-    <tableColumn id="29" xr3:uid="{D1CAA9F8-F250-41A9-A6B8-B8674A78ADB8}" name="Part 3 of 3_x000a_Which of these mentor skills are important to you?" dataDxfId="32"/>
-    <tableColumn id="30" xr3:uid="{A44A8159-8842-4A19-A9E3-916A205D4490}" name="Please confirm you are willing and able to meet at least once a month with your mentor between April and December 2020." dataDxfId="31"/>
-    <tableColumn id="31" xr3:uid="{A97144C3-8CF1-465E-A1C1-03D5D8BDA656}" name="Comments for the mentoring committee" dataDxfId="30"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{35E61BE1-7BBC-4CA2-895F-5C0C4A483C31}" name="Table14" displayName="Table14" ref="A1:AD6" totalsRowShown="0">
-  <autoFilter ref="A1:AD6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{A69B8051-700E-4CEF-BF8F-E11865CE7541}" name="ID" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{A6AA8B20-DC2D-439B-9169-E58260998708}" name="Start time" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{FB9ED99E-78C1-459A-AD96-A4CC99C9A1E4}" name="Completion time" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{9560AD28-703C-4388-8C02-E1D7F87AE4DA}" name="Email" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{90F0D221-52F1-4CF0-8CE5-D73732B75AF1}" name="Name" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{57CA2EB8-A8C3-4FF0-AE78-BE2F754A20BC}" name="First Name" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{827E6EDB-12E3-469E-87A9-5F158007F24C}" name="Nickname" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{C97E4DEF-2FB0-4CEB-8245-F25BF6580460}" name="Last Name" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{6D6E4A6F-572D-4515-B287-592361A96CA8}" name="Gender" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{549D2D2C-5847-4D1C-B7FC-9C823CE1EBAC}" name="WWID" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{39A0C549-C6D4-48BA-AEB2-3A27FEC09EE9}" name="J&amp;J Email Address" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{13C11ACE-C083-4EE1-859E-2C631AF09E09}" name="Job Title" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{81E5976B-66C6-4CD4-B824-F1B776565567}" name="Department and/or job function" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{59173813-0974-4D10-814C-DCA91E809377}" name="Which is your home office?" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{415DB493-EA7A-44D4-B414-F7CF217700EB}" name="Years of Experience" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{49476559-1C29-4E4F-BFF9-D98004F86AEA}" name="Years with JNJ" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{54974074-F954-45A2-8436-B5A8CD47292D}" name="Position Level" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{C033A53C-97B8-4AB5-A87D-1A76E095F4DD}" name="&quot;Elevator Pitch&quot;" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{058E2DB9-A821-496A-B123-9967F109B9D6}" name="LinkedIn Profile URL" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{288DA4D4-1036-4450-A205-129AD760D208}" name="Which of these do you think are good at?" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{4471961A-7C86-4C57-B8A6-921600E6F9A1}" name="Fort Washington (Consumer Inc)" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{954F2F58-B7EE-4BD7-B353-34BEBA531C2E}" name="Malvern (Janssen)" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{5055DCC2-09E7-4801-B693-4F8F957843B1}" name="Spring House (Janssen)" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{674D6384-0773-48BB-88FB-0C08B38101EC}" name="West Chester (DePuy Synthes)" dataDxfId="6"/>
-    <tableColumn id="25" xr3:uid="{0F27AB4A-0B77-4F85-94D2-DC4A6FDFB466}" name="Horsham (Janssen)" dataDxfId="5"/>
-    <tableColumn id="26" xr3:uid="{9BE7695C-FC9E-4FC9-9A74-9ED1414DC5AA}" name="How many mentees are you willing to mentor?" dataDxfId="4"/>
-    <tableColumn id="27" xr3:uid="{EB0CA96F-2BE4-4B35-90A9-F830C0B91CA1}" name="Female" dataDxfId="3"/>
-    <tableColumn id="28" xr3:uid="{2DBC14D2-9C97-473C-A336-E709EDE27CD4}" name="Male" dataDxfId="2"/>
-    <tableColumn id="29" xr3:uid="{60C65141-3256-4BCB-96B0-58DC8728772B}" name="Please confirm you are willing and able to meet at least once a month with your mentor between April and December 2020." dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{3B42E27A-586D-4B30-93C3-9413FAA2D7AD}" name="Comments for the mentoring committee" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C6699A28-F2E1-43BE-9E97-FEADB461C337}" name="ID" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{16257405-A08D-4DDE-AF20-290E4739C52C}" name="Start time" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{131AD184-7A7D-4AFD-8743-CDE854C2E4AF}" name="Completion time" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{69F2CB35-036B-411C-B99E-393544A9EA00}" name="Email" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{8EE54A42-C029-4F6F-A6AA-DF42C4D0FE97}" name="Name" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{4EA4DE18-C152-48FA-AAEE-A9CCF6B2D718}" name="First Name" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{7FACF7CD-829C-4815-8EE0-0FCB7E74EF9A}" name="Nickname" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{42D3AC82-621C-4E35-930E-7AC68315C1FF}" name="Last Name" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{9654BC7E-8130-4F8B-BC05-FAFE4370944C}" name="Gender" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{27021CD0-B11B-4849-AEE8-3449C618B1A8}" name="WWID" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{B6EA6AB3-8E89-422A-BB6D-7C6AF6DD2180}" name="J&amp;J Email Address" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{AD038AF6-177B-4F56-BF23-671894E16E34}" name="Job Title" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{F89721D1-73E2-460F-87E7-E1968AE3E8B6}" name="Department and/or job function" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{3C1FB8EE-8BE0-4EF5-8788-80A4B9E29A3D}" name="Which is your home office?" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{1549187F-C29D-4F35-86A0-E26C157548F5}" name="Years of Experience" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{BC09D291-1390-4147-850C-DDC12AFA0C77}" name="Years with JNJ" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{5E5C8E84-BB57-44D2-967C-1FEEF5EC8795}" name="Position Level" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{51C71E5C-B243-4B4F-A3F2-9B3DAFD1E1D1}" name="Would you like to enter one to five preferred mentors?" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{C03EBF87-3C21-4B6C-AA1D-85529B62C0B0}" name="WWIDs of Preferred Mentor" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{8AD53261-29AE-4B5E-BD6C-D830A1ADB1D6}" name="Thanks for taking the time to enter some preferred mentors! How would you like to proceed?" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{61E83F74-9DB4-4AAC-A7FA-E3C94CF11F53}" name="Fort Washington (Consumer Inc)" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{999FD483-FDDB-4222-8696-25F5EBE2C22F}" name="Malvern (Janssen)" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{951F7A69-6D38-493F-A1DB-04F269F32701}" name="Spring House (Janssen)" dataDxfId="8"/>
+    <tableColumn id="24" xr3:uid="{FBB9F19E-94A4-4993-8A18-BCDBA18DC88A}" name="West Chester (DePuy Synthes)" dataDxfId="7"/>
+    <tableColumn id="25" xr3:uid="{FBCBC50A-3F9A-44CB-895B-D59062A303D9}" name="Horsham (Janssen)" dataDxfId="6"/>
+    <tableColumn id="26" xr3:uid="{699110DE-87E4-4B96-A7C9-66CDB3FC4EC1}" name="Titusville (Janssen)" dataDxfId="5"/>
+    <tableColumn id="27" xr3:uid="{8ADE0FBB-F30F-485F-BED8-6824206C7809}" name="Female" dataDxfId="4"/>
+    <tableColumn id="28" xr3:uid="{9B26AA55-D37A-4C5C-B11D-9C3E03CE7F38}" name="Male" dataDxfId="3"/>
+    <tableColumn id="29" xr3:uid="{D1CAA9F8-F250-41A9-A6B8-B8674A78ADB8}" name="Part 3 of 3_x000a_Which of these mentor skills are important to you?" dataDxfId="2"/>
+    <tableColumn id="30" xr3:uid="{A44A8159-8842-4A19-A9E3-916A205D4490}" name="Please confirm you are willing and able to meet at least once a month with your mentor between April and December 2020." dataDxfId="1"/>
+    <tableColumn id="31" xr3:uid="{A97144C3-8CF1-465E-A1C1-03D5D8BDA656}" name="Comments for the mentoring committee" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1278,12 +1148,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="30" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1245,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1467,7 +1337,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1555,7 +1425,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1641,7 +1511,7 @@
       </c>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1729,7 +1599,7 @@
       </c>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1834,12 +1704,12 @@
       <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="31" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1804,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>7</v>
       </c>
@@ -2029,7 +1899,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>8</v>
       </c>
@@ -2102,7 +1972,7 @@
       </c>
       <c r="AE3" s="3"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>9</v>
       </c>
@@ -2189,7 +2059,7 @@
       </c>
       <c r="AE4" s="3"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -2276,7 +2146,7 @@
       </c>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>11</v>
       </c>
@@ -2382,12 +2252,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -2395,7 +2265,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>876543219</v>
       </c>
@@ -2403,7 +2273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>654321987</v>
       </c>
@@ -2417,562 +2287,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189E1F54-C9D3-4C64-90CF-E6CAD60657E6}">
-  <dimension ref="A1:AD6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="30" width="20" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43815.416828703703</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43815.418865740699</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43815.430520833303</v>
-      </c>
-      <c r="C3" s="1">
-        <v>43815.431840277801</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43815.431909722225</v>
-      </c>
-      <c r="C4" s="1">
-        <v>43815.434131944443</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD4" s="3"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43815.434155092589</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43815.435671296298</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD5" s="3"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43815.435694444444</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43815.437245370369</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD6" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -2980,19 +2294,19 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>104</v>
       </c>

--- a/tests/files/mentormatch_example_applications.xlsx
+++ b/tests/files/mentormatch_example_applications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchukina\projects\mentormatch\tests\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuki\projects\mentormatch\tests\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05E004B-ADC8-4BE8-AFEA-5B970F12AC61}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4681C892-79ED-41D2-B160-C98CF0A9225C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mentors" sheetId="1" r:id="rId1"/>
@@ -1274,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,7 +1404,7 @@
         <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>36</v>
@@ -1452,7 +1452,7 @@
         <v>48</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="AA2" s="3" t="s">
         <v>46</v>
@@ -1628,7 +1628,7 @@
         <v>48</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="AA4" s="3" t="s">
         <v>48</v>
@@ -1830,13 +1830,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D1D5B0-6A85-4C9E-B6D1-7EF108D8DFB6}">
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="31" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="18" width="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29" bestFit="1" customWidth="1"/>
+    <col min="20" max="31" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -2378,7 +2380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660B6003-3CD0-49F2-8E3A-041886EF35E9}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/tests/files/mentormatch_example_applications.xlsx
+++ b/tests/files/mentormatch_example_applications.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuki\projects\mentormatch\tests\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchukina\projects\mentormatch\tests\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4681C892-79ED-41D2-B160-C98CF0A9225C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A35912-6E99-4162-8683-470F362238CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mentors" sheetId="1" r:id="rId1"/>
     <sheet name="mentees" sheetId="3" r:id="rId2"/>
     <sheet name="favor" sheetId="4" r:id="rId3"/>
-    <sheet name="mentees004320" sheetId="5" r:id="rId4"/>
-    <sheet name="_56F9DC9755BA473782653E2940F9" sheetId="2" state="veryHidden" r:id="rId5"/>
+    <sheet name="_56F9DC9755BA473782653E2940F9" sheetId="2" state="veryHidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_56F9DC9755BA473782653E2940F9FormId" localSheetId="1">"M0vJOjWRIUiVAur9plkqNXt4eth-LKZDjqsdSLSP4qJUQ0RMNDVNTEpaR1pLUEowNzdDWkZRNEhCNy4u"</definedName>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="164">
   <si>
     <t>ID</t>
   </si>
@@ -147,9 +146,6 @@
   </si>
   <si>
     <t>Arand</t>
-  </si>
-  <si>
-    <t>12345678</t>
   </si>
   <si>
     <t>aarand@its.jnj.com</t>
@@ -523,6 +519,21 @@
   </si>
   <si>
     <t>favor</t>
+  </si>
+  <si>
+    <t>Upton</t>
+  </si>
+  <si>
+    <t>uupton@its.jnj.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234567891,  </t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Ursula</t>
   </si>
 </sst>
 </file>
@@ -532,10 +543,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -558,109 +577,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="91">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="61">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -861,115 +793,76 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AD6" totalsRowShown="0">
   <autoFilter ref="A1:AD6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="First Name" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Nickname" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Last Name" dataDxfId="83"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Gender" dataDxfId="82"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="WWID" dataDxfId="81"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="J&amp;J Email Address" dataDxfId="80"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Job Title" dataDxfId="79"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Department and/or job function" dataDxfId="78"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Which is your home office?" dataDxfId="77"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Years of Experience" dataDxfId="76"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Years with JNJ" dataDxfId="75"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Position Level" dataDxfId="74"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="&quot;Elevator Pitch&quot;" dataDxfId="73"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="LinkedIn Profile URL" dataDxfId="72"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Which of these do you think are good at?" dataDxfId="71"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Fort Washington (Consumer Inc)" dataDxfId="70"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Malvern (Janssen)" dataDxfId="69"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Spring House (Janssen)" dataDxfId="68"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="West Chester (DePuy Synthes)" dataDxfId="67"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Horsham (Janssen)" dataDxfId="66"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="How many mentees are you willing to mentor?" dataDxfId="65"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Female" dataDxfId="64"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Male" dataDxfId="63"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Please confirm you are willing and able to meet at least once a month with your mentor between April and December 2020." dataDxfId="62"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Comments for the mentoring committee" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="First Name" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Nickname" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Last Name" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Gender" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="WWID" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="J&amp;J Email Address" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Job Title" dataDxfId="49"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Department and/or job function" dataDxfId="48"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Which is your home office?" dataDxfId="47"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Years of Experience" dataDxfId="46"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Years with JNJ" dataDxfId="45"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Position Level" dataDxfId="44"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="&quot;Elevator Pitch&quot;" dataDxfId="43"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="LinkedIn Profile URL" dataDxfId="42"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Which of these do you think are good at?" dataDxfId="41"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Fort Washington (Consumer Inc)" dataDxfId="40"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Malvern (Janssen)" dataDxfId="39"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Spring House (Janssen)" dataDxfId="38"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="West Chester (DePuy Synthes)" dataDxfId="37"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Horsham (Janssen)" dataDxfId="36"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="How many mentees are you willing to mentor?" dataDxfId="35"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Female" dataDxfId="34"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Male" dataDxfId="33"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Please confirm you are willing and able to meet at least once a month with your mentor between April and December 2020." dataDxfId="32"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Comments for the mentoring committee" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EFCA757-1263-4606-88F0-B606FE664E19}" name="Table13" displayName="Table13" ref="A1:AE6" totalsRowShown="0">
-  <autoFilter ref="A1:AE6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EFCA757-1263-4606-88F0-B606FE664E19}" name="Table13" displayName="Table13" ref="A1:AE7" totalsRowShown="0">
+  <autoFilter ref="A1:AE7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{C6699A28-F2E1-43BE-9E97-FEADB461C337}" name="ID" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{16257405-A08D-4DDE-AF20-290E4739C52C}" name="Start time" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{131AD184-7A7D-4AFD-8743-CDE854C2E4AF}" name="Completion time" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{69F2CB35-036B-411C-B99E-393544A9EA00}" name="Email" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{8EE54A42-C029-4F6F-A6AA-DF42C4D0FE97}" name="Name" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{4EA4DE18-C152-48FA-AAEE-A9CCF6B2D718}" name="First Name" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{7FACF7CD-829C-4815-8EE0-0FCB7E74EF9A}" name="Nickname" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{42D3AC82-621C-4E35-930E-7AC68315C1FF}" name="Last Name" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{9654BC7E-8130-4F8B-BC05-FAFE4370944C}" name="Gender" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{27021CD0-B11B-4849-AEE8-3449C618B1A8}" name="WWID" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{B6EA6AB3-8E89-422A-BB6D-7C6AF6DD2180}" name="J&amp;J Email Address" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{AD038AF6-177B-4F56-BF23-671894E16E34}" name="Job Title" dataDxfId="49"/>
-    <tableColumn id="13" xr3:uid="{F89721D1-73E2-460F-87E7-E1968AE3E8B6}" name="Department and/or job function" dataDxfId="48"/>
-    <tableColumn id="14" xr3:uid="{3C1FB8EE-8BE0-4EF5-8788-80A4B9E29A3D}" name="Which is your home office?" dataDxfId="47"/>
-    <tableColumn id="15" xr3:uid="{1549187F-C29D-4F35-86A0-E26C157548F5}" name="Years of Experience" dataDxfId="46"/>
-    <tableColumn id="16" xr3:uid="{BC09D291-1390-4147-850C-DDC12AFA0C77}" name="Years with JNJ" dataDxfId="45"/>
-    <tableColumn id="17" xr3:uid="{5E5C8E84-BB57-44D2-967C-1FEEF5EC8795}" name="Position Level" dataDxfId="44"/>
-    <tableColumn id="18" xr3:uid="{51C71E5C-B243-4B4F-A3F2-9B3DAFD1E1D1}" name="Would you like to enter one to five preferred mentors?" dataDxfId="43"/>
-    <tableColumn id="19" xr3:uid="{C03EBF87-3C21-4B6C-AA1D-85529B62C0B0}" name="WWIDs of Preferred Mentor" dataDxfId="42"/>
-    <tableColumn id="20" xr3:uid="{8AD53261-29AE-4B5E-BD6C-D830A1ADB1D6}" name="Thanks for taking the time to enter some preferred mentors! How would you like to proceed?" dataDxfId="41"/>
-    <tableColumn id="21" xr3:uid="{61E83F74-9DB4-4AAC-A7FA-E3C94CF11F53}" name="Fort Washington (Consumer Inc)" dataDxfId="40"/>
-    <tableColumn id="22" xr3:uid="{999FD483-FDDB-4222-8696-25F5EBE2C22F}" name="Malvern (Janssen)" dataDxfId="39"/>
-    <tableColumn id="23" xr3:uid="{951F7A69-6D38-493F-A1DB-04F269F32701}" name="Spring House (Janssen)" dataDxfId="38"/>
-    <tableColumn id="24" xr3:uid="{FBB9F19E-94A4-4993-8A18-BCDBA18DC88A}" name="West Chester (DePuy Synthes)" dataDxfId="37"/>
-    <tableColumn id="25" xr3:uid="{FBCBC50A-3F9A-44CB-895B-D59062A303D9}" name="Horsham (Janssen)" dataDxfId="36"/>
-    <tableColumn id="26" xr3:uid="{699110DE-87E4-4B96-A7C9-66CDB3FC4EC1}" name="Titusville (Janssen)" dataDxfId="35"/>
-    <tableColumn id="27" xr3:uid="{8ADE0FBB-F30F-485F-BED8-6824206C7809}" name="Female" dataDxfId="34"/>
-    <tableColumn id="28" xr3:uid="{9B26AA55-D37A-4C5C-B11D-9C3E03CE7F38}" name="Male" dataDxfId="33"/>
-    <tableColumn id="29" xr3:uid="{D1CAA9F8-F250-41A9-A6B8-B8674A78ADB8}" name="Part 3 of 3_x000a_Which of these mentor skills are important to you?" dataDxfId="32"/>
-    <tableColumn id="30" xr3:uid="{A44A8159-8842-4A19-A9E3-916A205D4490}" name="Please confirm you are willing and able to meet at least once a month with your mentor between April and December 2020." dataDxfId="31"/>
-    <tableColumn id="31" xr3:uid="{A97144C3-8CF1-465E-A1C1-03D5D8BDA656}" name="Comments for the mentoring committee" dataDxfId="30"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{35E61BE1-7BBC-4CA2-895F-5C0C4A483C31}" name="Table14" displayName="Table14" ref="A1:AD6" totalsRowShown="0">
-  <autoFilter ref="A1:AD6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{A69B8051-700E-4CEF-BF8F-E11865CE7541}" name="ID" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{A6AA8B20-DC2D-439B-9169-E58260998708}" name="Start time" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{FB9ED99E-78C1-459A-AD96-A4CC99C9A1E4}" name="Completion time" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{9560AD28-703C-4388-8C02-E1D7F87AE4DA}" name="Email" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{90F0D221-52F1-4CF0-8CE5-D73732B75AF1}" name="Name" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{57CA2EB8-A8C3-4FF0-AE78-BE2F754A20BC}" name="First Name" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{827E6EDB-12E3-469E-87A9-5F158007F24C}" name="Nickname" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{C97E4DEF-2FB0-4CEB-8245-F25BF6580460}" name="Last Name" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{6D6E4A6F-572D-4515-B287-592361A96CA8}" name="Gender" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{549D2D2C-5847-4D1C-B7FC-9C823CE1EBAC}" name="WWID" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{39A0C549-C6D4-48BA-AEB2-3A27FEC09EE9}" name="J&amp;J Email Address" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{13C11ACE-C083-4EE1-859E-2C631AF09E09}" name="Job Title" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{81E5976B-66C6-4CD4-B824-F1B776565567}" name="Department and/or job function" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{59173813-0974-4D10-814C-DCA91E809377}" name="Which is your home office?" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{415DB493-EA7A-44D4-B414-F7CF217700EB}" name="Years of Experience" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{49476559-1C29-4E4F-BFF9-D98004F86AEA}" name="Years with JNJ" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{54974074-F954-45A2-8436-B5A8CD47292D}" name="Position Level" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{C033A53C-97B8-4AB5-A87D-1A76E095F4DD}" name="&quot;Elevator Pitch&quot;" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{058E2DB9-A821-496A-B123-9967F109B9D6}" name="LinkedIn Profile URL" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{288DA4D4-1036-4450-A205-129AD760D208}" name="Which of these do you think are good at?" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{4471961A-7C86-4C57-B8A6-921600E6F9A1}" name="Fort Washington (Consumer Inc)" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{954F2F58-B7EE-4BD7-B353-34BEBA531C2E}" name="Malvern (Janssen)" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{5055DCC2-09E7-4801-B693-4F8F957843B1}" name="Spring House (Janssen)" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{674D6384-0773-48BB-88FB-0C08B38101EC}" name="West Chester (DePuy Synthes)" dataDxfId="6"/>
-    <tableColumn id="25" xr3:uid="{0F27AB4A-0B77-4F85-94D2-DC4A6FDFB466}" name="Horsham (Janssen)" dataDxfId="5"/>
-    <tableColumn id="26" xr3:uid="{9BE7695C-FC9E-4FC9-9A74-9ED1414DC5AA}" name="How many mentees are you willing to mentor?" dataDxfId="4"/>
-    <tableColumn id="27" xr3:uid="{EB0CA96F-2BE4-4B35-90A9-F830C0B91CA1}" name="Female" dataDxfId="3"/>
-    <tableColumn id="28" xr3:uid="{2DBC14D2-9C97-473C-A336-E709EDE27CD4}" name="Male" dataDxfId="2"/>
-    <tableColumn id="29" xr3:uid="{60C65141-3256-4BCB-96B0-58DC8728772B}" name="Please confirm you are willing and able to meet at least once a month with your mentor between April and December 2020." dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{3B42E27A-586D-4B30-93C3-9413FAA2D7AD}" name="Comments for the mentoring committee" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C6699A28-F2E1-43BE-9E97-FEADB461C337}" name="ID" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{16257405-A08D-4DDE-AF20-290E4739C52C}" name="Start time" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{131AD184-7A7D-4AFD-8743-CDE854C2E4AF}" name="Completion time" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{69F2CB35-036B-411C-B99E-393544A9EA00}" name="Email" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{8EE54A42-C029-4F6F-A6AA-DF42C4D0FE97}" name="Name" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{4EA4DE18-C152-48FA-AAEE-A9CCF6B2D718}" name="First Name" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{7FACF7CD-829C-4815-8EE0-0FCB7E74EF9A}" name="Nickname" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{42D3AC82-621C-4E35-930E-7AC68315C1FF}" name="Last Name" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{9654BC7E-8130-4F8B-BC05-FAFE4370944C}" name="Gender" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{27021CD0-B11B-4849-AEE8-3449C618B1A8}" name="WWID" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{B6EA6AB3-8E89-422A-BB6D-7C6AF6DD2180}" name="J&amp;J Email Address" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{AD038AF6-177B-4F56-BF23-671894E16E34}" name="Job Title" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{F89721D1-73E2-460F-87E7-E1968AE3E8B6}" name="Department and/or job function" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{3C1FB8EE-8BE0-4EF5-8788-80A4B9E29A3D}" name="Which is your home office?" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{1549187F-C29D-4F35-86A0-E26C157548F5}" name="Years of Experience" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{BC09D291-1390-4147-850C-DDC12AFA0C77}" name="Years with JNJ" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{5E5C8E84-BB57-44D2-967C-1FEEF5EC8795}" name="Position Level" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{51C71E5C-B243-4B4F-A3F2-9B3DAFD1E1D1}" name="Would you like to enter one to five preferred mentors?" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{C03EBF87-3C21-4B6C-AA1D-85529B62C0B0}" name="WWIDs of Preferred Mentor" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{8AD53261-29AE-4B5E-BD6C-D830A1ADB1D6}" name="Thanks for taking the time to enter some preferred mentors! How would you like to proceed?" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{61E83F74-9DB4-4AAC-A7FA-E3C94CF11F53}" name="Fort Washington (Consumer Inc)" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{999FD483-FDDB-4222-8696-25F5EBE2C22F}" name="Malvern (Janssen)" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{951F7A69-6D38-493F-A1DB-04F269F32701}" name="Spring House (Janssen)" dataDxfId="8"/>
+    <tableColumn id="24" xr3:uid="{FBB9F19E-94A4-4993-8A18-BCDBA18DC88A}" name="West Chester (DePuy Synthes)" dataDxfId="7"/>
+    <tableColumn id="25" xr3:uid="{FBCBC50A-3F9A-44CB-895B-D59062A303D9}" name="Horsham (Janssen)" dataDxfId="6"/>
+    <tableColumn id="26" xr3:uid="{699110DE-87E4-4B96-A7C9-66CDB3FC4EC1}" name="Titusville (Janssen)" dataDxfId="5"/>
+    <tableColumn id="27" xr3:uid="{8ADE0FBB-F30F-485F-BED8-6824206C7809}" name="Female" dataDxfId="4"/>
+    <tableColumn id="28" xr3:uid="{9B26AA55-D37A-4C5C-B11D-9C3E03CE7F38}" name="Male" dataDxfId="3"/>
+    <tableColumn id="29" xr3:uid="{D1CAA9F8-F250-41A9-A6B8-B8674A78ADB8}" name="Part 3 of 3_x000a_Which of these mentor skills are important to you?" dataDxfId="2"/>
+    <tableColumn id="30" xr3:uid="{A44A8159-8842-4A19-A9E3-916A205D4490}" name="Please confirm you are willing and able to meet at least once a month with your mentor between April and December 2020." dataDxfId="1"/>
+    <tableColumn id="31" xr3:uid="{A97144C3-8CF1-465E-A1C1-03D5D8BDA656}" name="Comments for the mentoring committee" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1274,13 +1167,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="30" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="20" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="25" width="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="44.5703125" customWidth="1"/>
+    <col min="27" max="30" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -1404,67 +1302,67 @@
         <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="U2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="Z2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="AC2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -1484,75 +1382,75 @@
         <v>31</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD3" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -1572,72 +1470,72 @@
         <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Y4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="AD4" s="3"/>
     </row>
@@ -1658,74 +1556,74 @@
         <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="AA5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD5" s="3"/>
     </row>
@@ -1746,74 +1644,74 @@
         <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="X6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="X6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC6" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="AD6" s="3"/>
     </row>
@@ -1828,15 +1726,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D1D5B0-6A85-4C9E-B6D1-7EF108D8DFB6}">
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="20" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" customWidth="1"/>
     <col min="19" max="19" width="29" bestFit="1" customWidth="1"/>
     <col min="20" max="31" width="20" bestFit="1" customWidth="1"/>
   </cols>
@@ -1894,13 +1799,13 @@
         <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>20</v>
@@ -1918,7 +1823,7 @@
         <v>24</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>26</v>
@@ -1927,7 +1832,7 @@
         <v>27</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>28</v>
@@ -1953,82 +1858,82 @@
         <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="U2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -2048,47 +1953,47 @@
         <v>31</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
@@ -2100,7 +2005,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AE3" s="3"/>
     </row>
@@ -2121,73 +2026,73 @@
         <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="P4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="AC4" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AE4" s="3"/>
     </row>
@@ -2208,73 +2113,73 @@
         <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="P5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="Y5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AE5" s="3"/>
     </row>
@@ -2295,83 +2200,169 @@
         <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="Q6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="W6" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="X6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Z6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Z6" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="AA6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AE6" s="3"/>
     </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J7" s="3">
+        <v>432198765</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K7" r:id="rId1" xr:uid="{20E42E7D-6603-4BD1-8623-F6748E3EB301}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2391,10 +2382,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
         <v>158</v>
-      </c>
-      <c r="B1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2419,562 +2410,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189E1F54-C9D3-4C64-90CF-E6CAD60657E6}">
-  <dimension ref="A1:AD6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="30" width="20" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43815.416828703703</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43815.418865740699</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43815.430520833303</v>
-      </c>
-      <c r="C3" s="1">
-        <v>43815.431840277801</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43815.431909722225</v>
-      </c>
-      <c r="C4" s="1">
-        <v>43815.434131944443</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD4" s="3"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43815.434155092589</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43815.435671296298</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD5" s="3"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43815.435694444444</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43815.437245370369</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD6" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -2986,17 +2421,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/tests/files/mentormatch_example_applications.xlsx
+++ b/tests/files/mentormatch_example_applications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchukina\projects\mentormatch\tests\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A35912-6E99-4162-8683-470F362238CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DCA7EA-F067-4918-A5AB-4F2345300B26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mentors" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="163">
   <si>
     <t>ID</t>
   </si>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>Malvern</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>5.5</t>
@@ -1167,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,7 +1299,7 @@
         <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>35</v>
@@ -1350,13 +1347,13 @@
         <v>47</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC2" s="3" t="s">
         <v>49</v>
@@ -1406,21 +1403,21 @@
       <c r="N3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="2">
+        <v>20</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>46</v>
@@ -1438,7 +1435,7 @@
         <v>45</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>46</v>
@@ -1450,7 +1447,7 @@
         <v>49</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -1470,43 +1467,43 @@
         <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -1556,47 +1553,47 @@
         <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>55</v>
       </c>
       <c r="M5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>46</v>
@@ -1614,7 +1611,7 @@
         <v>46</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA5" s="3" t="s">
         <v>45</v>
@@ -1644,47 +1641,47 @@
         <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>45</v>
@@ -1728,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D1D5B0-6A85-4C9E-B6D1-7EF108D8DFB6}">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,9 +1735,14 @@
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.5703125" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="7" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" customWidth="1"/>
     <col min="18" max="18" width="8.85546875" customWidth="1"/>
     <col min="19" max="19" width="29" bestFit="1" customWidth="1"/>
     <col min="20" max="31" width="20" bestFit="1" customWidth="1"/>
@@ -1799,13 +1801,13 @@
         <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>20</v>
@@ -1823,7 +1825,7 @@
         <v>24</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>26</v>
@@ -1832,7 +1834,7 @@
         <v>27</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>28</v>
@@ -1858,49 +1860,49 @@
         <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="N2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>49</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>45</v>
@@ -1927,13 +1929,13 @@
         <v>46</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1953,47 +1955,47 @@
         <v>31</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>49</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
@@ -2026,38 +2028,38 @@
         <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="P4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>47</v>
@@ -2089,7 +2091,7 @@
         <v>47</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD4" s="3" t="s">
         <v>49</v>
@@ -2113,38 +2115,38 @@
         <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="P5" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>47</v>
@@ -2176,7 +2178,7 @@
         <v>45</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD5" s="3" t="s">
         <v>49</v>
@@ -2200,28 +2202,28 @@
         <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>38</v>
@@ -2230,7 +2232,7 @@
         <v>39</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>41</v>
@@ -2265,7 +2267,7 @@
         <v>45</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD6" s="3" t="s">
         <v>49</v>
@@ -2279,47 +2281,47 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J7" s="3">
         <v>432198765</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="N7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>45</v>
@@ -2346,13 +2348,13 @@
         <v>46</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2372,7 +2374,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,10 +2384,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" t="s">
         <v>157</v>
-      </c>
-      <c r="B1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2393,7 +2395,7 @@
         <v>876543219</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2401,7 +2403,7 @@
         <v>654321987</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2421,17 +2423,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/tests/files/mentormatch_example_applications.xlsx
+++ b/tests/files/mentormatch_example_applications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchukina\projects\mentormatch\tests\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DCA7EA-F067-4918-A5AB-4F2345300B26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6480E86-2E33-4903-81FF-4ED3C021FE22}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mentors" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="166">
   <si>
     <t>ID</t>
   </si>
@@ -531,6 +531,15 @@
   </si>
   <si>
     <t>Ursula</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234567891   345678912 </t>
+  </si>
+  <si>
+    <t>Tina</t>
   </si>
 </sst>
 </file>
@@ -557,15 +566,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -573,17 +588,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1164,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,7 +1477,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1611,7 +1638,7 @@
         <v>46</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AA5" s="3" t="s">
         <v>45</v>
@@ -1699,7 +1726,7 @@
         <v>45</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="AA6" s="3" t="s">
         <v>46</v>
@@ -1723,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D1D5B0-6A85-4C9E-B6D1-7EF108D8DFB6}">
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1769,7 @@
     <col min="13" max="13" width="4.5703125" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="7" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" customWidth="1"/>
+    <col min="17" max="17" width="26.28515625" customWidth="1"/>
     <col min="18" max="18" width="8.85546875" customWidth="1"/>
     <col min="19" max="19" width="29" bestFit="1" customWidth="1"/>
     <col min="20" max="31" width="20" bestFit="1" customWidth="1"/>
@@ -2064,7 +2091,9 @@
       <c r="R4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="2"/>
+      <c r="S4" s="2">
+        <v>456789123</v>
+      </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3" t="s">
         <v>47</v>
@@ -2151,7 +2180,9 @@
       <c r="R5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S5" s="2"/>
+      <c r="S5" s="2">
+        <v>456789123</v>
+      </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3" t="s">
         <v>46</v>
@@ -2318,7 +2349,7 @@
         <v>49</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>118</v>
@@ -2354,27 +2385,111 @@
         <v>49</v>
       </c>
       <c r="AE7" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" s="3">
+        <v>321987654</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE8" s="3" t="s">
         <v>120</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K7" r:id="rId1" xr:uid="{20E42E7D-6603-4BD1-8623-F6748E3EB301}"/>
+    <hyperlink ref="K8" r:id="rId2" xr:uid="{003DF86F-73A2-410D-9733-EDA71128AFEA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660B6003-3CD0-49F2-8E3A-041886EF35E9}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,19 +2506,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>876543219</v>
+      <c r="A2" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>654321987</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tests/files/mentormatch_example_applications.xlsx
+++ b/tests/files/mentormatch_example_applications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchukina\projects\mentormatch\tests\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6480E86-2E33-4903-81FF-4ED3C021FE22}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125D535A-276B-43FC-ACB0-05389C80CA9C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mentors" sheetId="1" r:id="rId1"/>
@@ -1191,7 +1191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
@@ -2488,7 +2488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660B6003-3CD0-49F2-8E3A-041886EF35E9}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
